--- a/data-raw/public-site/ISO-country/xlsx/country-region-check-byhand.xlsx
+++ b/data-raw/public-site/ISO-country/xlsx/country-region-check-byhand.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\report-beltroad\data-raw\public-site\WTO-rats\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\techme\data-raw\public-site\ISO-country\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECD53AF-1512-450C-9FE6-0AEDDFA93855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC2E61A-F439-492F-B9E9-9A79BE81B556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="-195" windowWidth="29190" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9892" yWindow="8078" windowWidth="24495" windowHeight="15795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4445" uniqueCount="1627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4446" uniqueCount="1628">
   <si>
     <t>name</t>
   </si>
@@ -4973,6 +4973,10 @@
   </si>
   <si>
     <t>波黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东亚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5341,8 +5345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="O215" sqref="O215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17469,6 +17473,9 @@
       <c r="L219" t="s">
         <v>30</v>
       </c>
+      <c r="M219" s="3" t="s">
+        <v>1627</v>
+      </c>
       <c r="O219" t="s">
         <v>1618</v>
       </c>
